--- a/project/0_rts/RT2604/Planilha_Abaco_Gooseneck_MCV_Global_10k_MUX-Rev8.xlsx
+++ b/project/0_rts/RT2604/Planilha_Abaco_Gooseneck_MCV_Global_10k_MUX-Rev8.xlsx
@@ -5404,10 +5404,11 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Documento" ma:contentTypeID="0x0101002E90C87AC8820043BFE71A5FB0DDB6EC" ma:contentTypeVersion="15" ma:contentTypeDescription="Crie um novo documento." ma:contentTypeScope="" ma:versionID="a2a8ce1f5bc7a9ae8b5abdcb00b6cafe">
-  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="e22693a2-11d8-4e06-9932-42f8499655b9" xmlns:ns3="7240fca1-d5d8-4b7d-af8f-d58b11c87bd0" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="b146a6bcd0f4c9724cf477ac809c65e8" ns2:_="" ns3:_="">
-    <xsd:import namespace="e22693a2-11d8-4e06-9932-42f8499655b9"/>
-    <xsd:import namespace="7240fca1-d5d8-4b7d-af8f-d58b11c87bd0"/>
+<ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Documento" ma:contentTypeID="0x01010069E487C1B5A6A7469ECF295E300FC521" ma:contentTypeVersion="14" ma:contentTypeDescription="Crie um novo documento." ma:contentTypeScope="" ma:versionID="0960ac6fc61b40489ab078022ce7de8d">
+  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="509bbd28-9a6d-445a-83dd-f5d328eece76" xmlns:ns3="903036b2-f8dc-4ca8-82df-457cf2fff651" xmlns:ns4="461c5b05-e7ae-45a9-96d4-4a689e060405" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="d2f069df8fef6df821bd87bc04dd1b2c" ns2:_="" ns3:_="" ns4:_="">
+    <xsd:import namespace="509bbd28-9a6d-445a-83dd-f5d328eece76"/>
+    <xsd:import namespace="903036b2-f8dc-4ca8-82df-457cf2fff651"/>
+    <xsd:import namespace="461c5b05-e7ae-45a9-96d4-4a689e060405"/>
     <xsd:element name="properties">
       <xsd:complexType>
         <xsd:sequence>
@@ -5416,18 +5417,18 @@
               <xsd:all>
                 <xsd:element ref="ns2:MediaServiceMetadata" minOccurs="0"/>
                 <xsd:element ref="ns2:MediaServiceFastMetadata" minOccurs="0"/>
-                <xsd:element ref="ns2:lcf76f155ced4ddcb4097134ff3c332f" minOccurs="0"/>
-                <xsd:element ref="ns3:TaxCatchAll" minOccurs="0"/>
-                <xsd:element ref="ns2:MediaServiceObjectDetectorVersions" minOccurs="0"/>
-                <xsd:element ref="ns2:MediaServiceOCR" minOccurs="0"/>
-                <xsd:element ref="ns2:MediaServiceGenerationTime" minOccurs="0"/>
-                <xsd:element ref="ns2:MediaServiceEventHashCode" minOccurs="0"/>
-                <xsd:element ref="ns2:MediaLengthInSeconds" minOccurs="0"/>
                 <xsd:element ref="ns3:SharedWithUsers" minOccurs="0"/>
                 <xsd:element ref="ns3:SharedWithDetails" minOccurs="0"/>
-                <xsd:element ref="ns2:MediaServiceDateTaken" minOccurs="0"/>
-                <xsd:element ref="ns2:_Flow_SignoffStatus" minOccurs="0"/>
-                <xsd:element ref="ns2:MediaServiceSearchProperties" minOccurs="0"/>
+                <xsd:element ref="ns4:lcf76f155ced4ddcb4097134ff3c332f" minOccurs="0"/>
+                <xsd:element ref="ns3:TaxCatchAll" minOccurs="0"/>
+                <xsd:element ref="ns4:MediaServiceOCR" minOccurs="0"/>
+                <xsd:element ref="ns4:MediaServiceGenerationTime" minOccurs="0"/>
+                <xsd:element ref="ns4:MediaServiceEventHashCode" minOccurs="0"/>
+                <xsd:element ref="ns4:MediaServiceObjectDetectorVersions" minOccurs="0"/>
+                <xsd:element ref="ns4:MediaLengthInSeconds" minOccurs="0"/>
+                <xsd:element ref="ns4:MediaServiceDateTaken" minOccurs="0"/>
+                <xsd:element ref="ns4:MediaServiceLocation" minOccurs="0"/>
+                <xsd:element ref="ns4:MediaServiceSearchProperties" minOccurs="0"/>
               </xsd:all>
             </xsd:complexType>
           </xsd:element>
@@ -5435,7 +5436,7 @@
       </xsd:complexType>
     </xsd:element>
   </xsd:schema>
-  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:dms="http://schemas.microsoft.com/office/2006/documentManagement/types" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" targetNamespace="e22693a2-11d8-4e06-9932-42f8499655b9" elementFormDefault="qualified">
+  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:dms="http://schemas.microsoft.com/office/2006/documentManagement/types" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" targetNamespace="509bbd28-9a6d-445a-83dd-f5d328eece76" elementFormDefault="qualified">
     <xsd:import namespace="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
     <xsd:import namespace="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
     <xsd:element name="MediaServiceMetadata" ma:index="8" nillable="true" ma:displayName="MediaServiceMetadata" ma:hidden="true" ma:internalName="MediaServiceMetadata" ma:readOnly="true">
@@ -5448,71 +5449,11 @@
         <xsd:restriction base="dms:Note"/>
       </xsd:simpleType>
     </xsd:element>
-    <xsd:element name="lcf76f155ced4ddcb4097134ff3c332f" ma:index="11" nillable="true" ma:taxonomy="true" ma:internalName="lcf76f155ced4ddcb4097134ff3c332f" ma:taxonomyFieldName="MediaServiceImageTags" ma:displayName="Marcações de imagem" ma:readOnly="false" ma:fieldId="{5cf76f15-5ced-4ddc-b409-7134ff3c332f}" ma:taxonomyMulti="true" ma:sspId="5103c4ab-04ed-4a1f-bb47-9362306674cb" ma:termSetId="09814cd3-568e-fe90-9814-8d621ff8fb84" ma:anchorId="fba54fb3-c3e1-fe81-a776-ca4b69148c4d" ma:open="true" ma:isKeyword="false">
-      <xsd:complexType>
-        <xsd:sequence>
-          <xsd:element ref="pc:Terms" minOccurs="0" maxOccurs="1"/>
-        </xsd:sequence>
-      </xsd:complexType>
-    </xsd:element>
-    <xsd:element name="MediaServiceObjectDetectorVersions" ma:index="13" nillable="true" ma:displayName="MediaServiceObjectDetectorVersions" ma:hidden="true" ma:indexed="true" ma:internalName="MediaServiceObjectDetectorVersions" ma:readOnly="true">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Text"/>
-      </xsd:simpleType>
-    </xsd:element>
-    <xsd:element name="MediaServiceOCR" ma:index="14" nillable="true" ma:displayName="Extracted Text" ma:internalName="MediaServiceOCR" ma:readOnly="true">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Note">
-          <xsd:maxLength value="255"/>
-        </xsd:restriction>
-      </xsd:simpleType>
-    </xsd:element>
-    <xsd:element name="MediaServiceGenerationTime" ma:index="15" nillable="true" ma:displayName="MediaServiceGenerationTime" ma:hidden="true" ma:internalName="MediaServiceGenerationTime" ma:readOnly="true">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Text"/>
-      </xsd:simpleType>
-    </xsd:element>
-    <xsd:element name="MediaServiceEventHashCode" ma:index="16" nillable="true" ma:displayName="MediaServiceEventHashCode" ma:hidden="true" ma:internalName="MediaServiceEventHashCode" ma:readOnly="true">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Text"/>
-      </xsd:simpleType>
-    </xsd:element>
-    <xsd:element name="MediaLengthInSeconds" ma:index="17" nillable="true" ma:displayName="MediaLengthInSeconds" ma:hidden="true" ma:internalName="MediaLengthInSeconds" ma:readOnly="true">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Unknown"/>
-      </xsd:simpleType>
-    </xsd:element>
-    <xsd:element name="MediaServiceDateTaken" ma:index="20" nillable="true" ma:displayName="MediaServiceDateTaken" ma:hidden="true" ma:indexed="true" ma:internalName="MediaServiceDateTaken" ma:readOnly="true">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Text"/>
-      </xsd:simpleType>
-    </xsd:element>
-    <xsd:element name="_Flow_SignoffStatus" ma:index="21" nillable="true" ma:displayName="Sign-off status" ma:internalName="Sign_x002d_off_x0020_status">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Text"/>
-      </xsd:simpleType>
-    </xsd:element>
-    <xsd:element name="MediaServiceSearchProperties" ma:index="22" nillable="true" ma:displayName="MediaServiceSearchProperties" ma:hidden="true" ma:internalName="MediaServiceSearchProperties" ma:readOnly="true">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Note"/>
-      </xsd:simpleType>
-    </xsd:element>
   </xsd:schema>
-  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:dms="http://schemas.microsoft.com/office/2006/documentManagement/types" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" targetNamespace="7240fca1-d5d8-4b7d-af8f-d58b11c87bd0" elementFormDefault="qualified">
+  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:dms="http://schemas.microsoft.com/office/2006/documentManagement/types" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" targetNamespace="903036b2-f8dc-4ca8-82df-457cf2fff651" elementFormDefault="qualified">
     <xsd:import namespace="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
     <xsd:import namespace="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <xsd:element name="TaxCatchAll" ma:index="12" nillable="true" ma:displayName="Taxonomy Catch All Column" ma:hidden="true" ma:list="{12529d39-6b3f-49f3-8254-0ddaa0523a13}" ma:internalName="TaxCatchAll" ma:showField="CatchAllData" ma:web="7240fca1-d5d8-4b7d-af8f-d58b11c87bd0">
-      <xsd:complexType>
-        <xsd:complexContent>
-          <xsd:extension base="dms:MultiChoiceLookup">
-            <xsd:sequence>
-              <xsd:element name="Value" type="dms:Lookup" maxOccurs="unbounded" minOccurs="0" nillable="true"/>
-            </xsd:sequence>
-          </xsd:extension>
-        </xsd:complexContent>
-      </xsd:complexType>
-    </xsd:element>
-    <xsd:element name="SharedWithUsers" ma:index="18" nillable="true" ma:displayName="Compartilhado com" ma:internalName="SharedWithUsers" ma:readOnly="true">
+    <xsd:element name="SharedWithUsers" ma:index="10" nillable="true" ma:displayName="Compartilhado com" ma:internalName="SharedWithUsers" ma:readOnly="true">
       <xsd:complexType>
         <xsd:complexContent>
           <xsd:extension base="dms:UserMulti">
@@ -5531,11 +5472,75 @@
         </xsd:complexContent>
       </xsd:complexType>
     </xsd:element>
-    <xsd:element name="SharedWithDetails" ma:index="19" nillable="true" ma:displayName="Detalhes de Compartilhado Com" ma:internalName="SharedWithDetails" ma:readOnly="true">
+    <xsd:element name="SharedWithDetails" ma:index="11" nillable="true" ma:displayName="Detalhes de Compartilhado Com" ma:internalName="SharedWithDetails" ma:readOnly="true">
       <xsd:simpleType>
         <xsd:restriction base="dms:Note">
           <xsd:maxLength value="255"/>
         </xsd:restriction>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="TaxCatchAll" ma:index="14" nillable="true" ma:displayName="Taxonomy Catch All Column" ma:hidden="true" ma:list="{671d7225-7c32-4489-b6da-c381a375bb6a}" ma:internalName="TaxCatchAll" ma:showField="CatchAllData" ma:web="903036b2-f8dc-4ca8-82df-457cf2fff651">
+      <xsd:complexType>
+        <xsd:complexContent>
+          <xsd:extension base="dms:MultiChoiceLookup">
+            <xsd:sequence>
+              <xsd:element name="Value" type="dms:Lookup" maxOccurs="unbounded" minOccurs="0" nillable="true"/>
+            </xsd:sequence>
+          </xsd:extension>
+        </xsd:complexContent>
+      </xsd:complexType>
+    </xsd:element>
+  </xsd:schema>
+  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:dms="http://schemas.microsoft.com/office/2006/documentManagement/types" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" targetNamespace="461c5b05-e7ae-45a9-96d4-4a689e060405" elementFormDefault="qualified">
+    <xsd:import namespace="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <xsd:import namespace="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <xsd:element name="lcf76f155ced4ddcb4097134ff3c332f" ma:index="13" nillable="true" ma:taxonomy="true" ma:internalName="lcf76f155ced4ddcb4097134ff3c332f" ma:taxonomyFieldName="MediaServiceImageTags" ma:displayName="Marcações de imagem" ma:readOnly="false" ma:fieldId="{5cf76f15-5ced-4ddc-b409-7134ff3c332f}" ma:taxonomyMulti="true" ma:sspId="5103c4ab-04ed-4a1f-bb47-9362306674cb" ma:termSetId="09814cd3-568e-fe90-9814-8d621ff8fb84" ma:anchorId="fba54fb3-c3e1-fe81-a776-ca4b69148c4d" ma:open="true" ma:isKeyword="false">
+      <xsd:complexType>
+        <xsd:sequence>
+          <xsd:element ref="pc:Terms" minOccurs="0" maxOccurs="1"/>
+        </xsd:sequence>
+      </xsd:complexType>
+    </xsd:element>
+    <xsd:element name="MediaServiceOCR" ma:index="15" nillable="true" ma:displayName="Extracted Text" ma:internalName="MediaServiceOCR" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Note">
+          <xsd:maxLength value="255"/>
+        </xsd:restriction>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceGenerationTime" ma:index="16" nillable="true" ma:displayName="MediaServiceGenerationTime" ma:hidden="true" ma:internalName="MediaServiceGenerationTime" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Text"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceEventHashCode" ma:index="17" nillable="true" ma:displayName="MediaServiceEventHashCode" ma:hidden="true" ma:internalName="MediaServiceEventHashCode" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Text"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceObjectDetectorVersions" ma:index="18" nillable="true" ma:displayName="MediaServiceObjectDetectorVersions" ma:hidden="true" ma:indexed="true" ma:internalName="MediaServiceObjectDetectorVersions" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Text"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaLengthInSeconds" ma:index="19" nillable="true" ma:displayName="MediaLengthInSeconds" ma:hidden="true" ma:internalName="MediaLengthInSeconds" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Unknown"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceDateTaken" ma:index="20" nillable="true" ma:displayName="MediaServiceDateTaken" ma:hidden="true" ma:indexed="true" ma:internalName="MediaServiceDateTaken" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Text"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceLocation" ma:index="21" nillable="true" ma:displayName="Location" ma:description="" ma:indexed="true" ma:internalName="MediaServiceLocation" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Text"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceSearchProperties" ma:index="22" nillable="true" ma:displayName="MediaServiceSearchProperties" ma:hidden="true" ma:internalName="MediaServiceSearchProperties" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Note"/>
       </xsd:simpleType>
     </xsd:element>
   </xsd:schema>
@@ -5650,32 +5655,16 @@
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="e22693a2-11d8-4e06-9932-42f8499655b9">
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="461c5b05-e7ae-45a9-96d4-4a689e060405">
       <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
     </lcf76f155ced4ddcb4097134ff3c332f>
-    <TaxCatchAll xmlns="7240fca1-d5d8-4b7d-af8f-d58b11c87bd0" xsi:nil="true"/>
-    <_Flow_SignoffStatus xmlns="e22693a2-11d8-4e06-9932-42f8499655b9" xsi:nil="true"/>
+    <TaxCatchAll xmlns="903036b2-f8dc-4ca8-82df-457cf2fff651" xsi:nil="true"/>
   </documentManagement>
 </p:properties>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{32202815-5895-48AC-A81A-A5F909FAE364}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="e22693a2-11d8-4e06-9932-42f8499655b9"/>
-    <ds:schemaRef ds:uri="7240fca1-d5d8-4b7d-af8f-d58b11c87bd0"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{C16339D3-36BA-4E49-9C87-1FA1F250E7A6}"/>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>

--- a/project/0_rts/RT2604/Planilha_Abaco_Gooseneck_MCV_Global_10k_MUX-Rev8.xlsx
+++ b/project/0_rts/RT2604/Planilha_Abaco_Gooseneck_MCV_Global_10k_MUX-Rev8.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25601"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26731"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\psilva13\Digicorner\BVP Cloud - 2604\2-Análises\V1\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\dwanderley\Digicorner\Installation Analysis Subsea - Daniel Wanderley\tcc\project\0_rts\RT2604\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FAE76459-3EFB-4E13-A3E1-76410CD24302}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1227E5EA-30F3-4726-A10B-ECE0D522C014}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <workbookProtection workbookAlgorithmName="SHA-512" workbookHashValue="H8AG1MfkWuwntojP41yCthTwzDUC2HyYICo7Ljc7+A9EhvXF8ZVCKBfnFl/Qd9gjrfJJrzPsgmxtl20mzW+C9g==" workbookSaltValue="vYKbJP7XkNP/o59zgThDTw==" workbookSpinCount="100000" lockStructure="1"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
@@ -1157,7 +1157,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="139">
+  <cellXfs count="141">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -1270,6 +1270,143 @@
     <xf numFmtId="0" fontId="4" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="1" fontId="4" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="1" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="19" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="25" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="21" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="26" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="22" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="23" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="27" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="19" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="166" fontId="0" fillId="4" borderId="5" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="166" fontId="0" fillId="4" borderId="15" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="166" fontId="0" fillId="4" borderId="6" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="44" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left"/>
       <protection locked="0"/>
@@ -1282,21 +1419,6 @@
       <alignment horizontal="left"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="19" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1327,127 +1449,64 @@
     <xf numFmtId="1" fontId="0" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="1" fontId="0" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="40" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="41" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="32" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="33" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="44" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="25" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="21" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="26" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="22" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="23" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="27" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="166" fontId="0" fillId="4" borderId="5" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="166" fontId="0" fillId="4" borderId="15" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="166" fontId="0" fillId="4" borderId="6" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="42" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="43" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="34" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="35" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
@@ -1501,57 +1560,6 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="7" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="40" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="41" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="32" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="33" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="42" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="43" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="34" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="35" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -2139,13 +2147,13 @@
       <c r="D2" s="17" t="s">
         <v>0</v>
       </c>
-      <c r="E2" s="54" t="s">
+      <c r="E2" s="94" t="s">
         <v>1</v>
       </c>
-      <c r="F2" s="55"/>
-      <c r="G2" s="55"/>
-      <c r="H2" s="55"/>
-      <c r="I2" s="56"/>
+      <c r="F2" s="95"/>
+      <c r="G2" s="95"/>
+      <c r="H2" s="95"/>
+      <c r="I2" s="96"/>
     </row>
     <row r="3" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B3" s="12"/>
@@ -2153,13 +2161,13 @@
       <c r="D3" s="18" t="s">
         <v>2</v>
       </c>
-      <c r="E3" s="57" t="s">
+      <c r="E3" s="66" t="s">
         <v>3</v>
       </c>
-      <c r="F3" s="58"/>
-      <c r="G3" s="58"/>
-      <c r="H3" s="58"/>
-      <c r="I3" s="59"/>
+      <c r="F3" s="67"/>
+      <c r="G3" s="67"/>
+      <c r="H3" s="67"/>
+      <c r="I3" s="68"/>
     </row>
     <row r="4" spans="2:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B4" s="15"/>
@@ -2167,90 +2175,90 @@
       <c r="D4" s="18" t="s">
         <v>4</v>
       </c>
-      <c r="E4" s="57" t="s">
+      <c r="E4" s="66" t="s">
         <v>5</v>
       </c>
-      <c r="F4" s="58"/>
-      <c r="G4" s="58"/>
-      <c r="H4" s="58"/>
-      <c r="I4" s="59"/>
+      <c r="F4" s="67"/>
+      <c r="G4" s="67"/>
+      <c r="H4" s="67"/>
+      <c r="I4" s="68"/>
     </row>
     <row r="5" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B5" s="89" t="s">
+      <c r="B5" s="69" t="s">
         <v>6</v>
       </c>
-      <c r="C5" s="90"/>
-      <c r="D5" s="91"/>
-      <c r="E5" s="57" t="s">
+      <c r="C5" s="70"/>
+      <c r="D5" s="71"/>
+      <c r="E5" s="66" t="s">
         <v>7</v>
       </c>
-      <c r="F5" s="58"/>
-      <c r="G5" s="58"/>
-      <c r="H5" s="58"/>
-      <c r="I5" s="59"/>
+      <c r="F5" s="67"/>
+      <c r="G5" s="67"/>
+      <c r="H5" s="67"/>
+      <c r="I5" s="68"/>
     </row>
     <row r="6" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B6" s="98" t="s">
+      <c r="B6" s="78" t="s">
         <v>8</v>
       </c>
-      <c r="C6" s="99"/>
-      <c r="D6" s="91"/>
-      <c r="E6" s="57" t="s">
+      <c r="C6" s="79"/>
+      <c r="D6" s="71"/>
+      <c r="E6" s="66" t="s">
         <v>9</v>
       </c>
-      <c r="F6" s="58"/>
-      <c r="G6" s="58"/>
-      <c r="H6" s="58"/>
-      <c r="I6" s="59"/>
+      <c r="F6" s="67"/>
+      <c r="G6" s="67"/>
+      <c r="H6" s="67"/>
+      <c r="I6" s="68"/>
     </row>
     <row r="7" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B7" s="98" t="s">
+      <c r="B7" s="78" t="s">
         <v>10</v>
       </c>
-      <c r="C7" s="99"/>
-      <c r="D7" s="91"/>
-      <c r="E7" s="57" t="s">
+      <c r="C7" s="79"/>
+      <c r="D7" s="71"/>
+      <c r="E7" s="66" t="s">
         <v>11</v>
       </c>
-      <c r="F7" s="58"/>
-      <c r="G7" s="58"/>
-      <c r="H7" s="58"/>
-      <c r="I7" s="59"/>
+      <c r="F7" s="67"/>
+      <c r="G7" s="67"/>
+      <c r="H7" s="67"/>
+      <c r="I7" s="68"/>
     </row>
     <row r="8" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B8" s="98" t="s">
+      <c r="B8" s="78" t="s">
         <v>12</v>
       </c>
-      <c r="C8" s="99"/>
-      <c r="D8" s="91"/>
-      <c r="E8" s="57" t="s">
+      <c r="C8" s="79"/>
+      <c r="D8" s="71"/>
+      <c r="E8" s="66" t="s">
         <v>11</v>
       </c>
-      <c r="F8" s="58"/>
-      <c r="G8" s="58"/>
-      <c r="H8" s="58"/>
-      <c r="I8" s="59"/>
+      <c r="F8" s="67"/>
+      <c r="G8" s="67"/>
+      <c r="H8" s="67"/>
+      <c r="I8" s="68"/>
     </row>
     <row r="9" spans="2:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B9" s="100" t="s">
+      <c r="B9" s="80" t="s">
         <v>13</v>
       </c>
-      <c r="C9" s="101"/>
-      <c r="D9" s="102"/>
-      <c r="E9" s="95">
+      <c r="C9" s="81"/>
+      <c r="D9" s="82"/>
+      <c r="E9" s="75">
         <v>43522</v>
       </c>
-      <c r="F9" s="96"/>
-      <c r="G9" s="96"/>
-      <c r="H9" s="96"/>
-      <c r="I9" s="97"/>
+      <c r="F9" s="76"/>
+      <c r="G9" s="76"/>
+      <c r="H9" s="76"/>
+      <c r="I9" s="77"/>
     </row>
     <row r="17" spans="2:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="18" spans="2:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B18" s="103" t="s">
+      <c r="B18" s="84" t="s">
         <v>14</v>
       </c>
-      <c r="C18" s="104"/>
+      <c r="C18" s="85"/>
     </row>
     <row r="19" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B19" s="8" t="s">
@@ -2283,13 +2291,13 @@
       <c r="C22" s="23" t="s">
         <v>96</v>
       </c>
-      <c r="E22" s="63" t="s">
+      <c r="E22" s="99" t="s">
         <v>20</v>
       </c>
-      <c r="F22" s="64"/>
-      <c r="G22" s="64"/>
-      <c r="H22" s="64"/>
-      <c r="I22" s="65"/>
+      <c r="F22" s="100"/>
+      <c r="G22" s="100"/>
+      <c r="H22" s="100"/>
+      <c r="I22" s="101"/>
     </row>
     <row r="23" spans="2:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="E23" s="44"/>
@@ -2302,33 +2310,33 @@
       <c r="E24" s="45" t="s">
         <v>21</v>
       </c>
-      <c r="F24" s="79" t="s">
+      <c r="F24" s="93" t="s">
         <v>19</v>
       </c>
-      <c r="G24" s="79"/>
+      <c r="G24" s="93"/>
       <c r="H24" s="46" t="s">
         <v>22</v>
       </c>
-      <c r="K24" s="69" t="s">
+      <c r="K24" s="105" t="s">
         <v>23</v>
       </c>
-      <c r="L24" s="69"/>
+      <c r="L24" s="105"/>
     </row>
     <row r="25" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B25" s="73" t="s">
+      <c r="B25" s="87" t="s">
         <v>24</v>
       </c>
-      <c r="C25" s="74"/>
-      <c r="D25" s="75"/>
+      <c r="C25" s="88"/>
+      <c r="D25" s="89"/>
       <c r="E25" s="47">
         <f>C19*C50+C20*C51+C52</f>
         <v>143.03001910640796</v>
       </c>
-      <c r="F25" s="70">
+      <c r="F25" s="106">
         <f>(E25+H25)/2</f>
         <v>105.77617513054604</v>
       </c>
-      <c r="G25" s="70"/>
+      <c r="G25" s="106"/>
       <c r="H25" s="48">
         <f>C19*C71+C20*C72+C73</f>
         <v>68.52233115468411</v>
@@ -2346,20 +2354,20 @@
       </c>
     </row>
     <row r="26" spans="2:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B26" s="76" t="s">
+      <c r="B26" s="90" t="s">
         <v>26</v>
       </c>
-      <c r="C26" s="77"/>
-      <c r="D26" s="78"/>
+      <c r="C26" s="91"/>
+      <c r="D26" s="92"/>
       <c r="E26" s="49">
         <f>C19*G50+C20*G51+G52</f>
         <v>-235.18619562022343</v>
       </c>
-      <c r="F26" s="71">
+      <c r="F26" s="86">
         <f>(E26+H26)/2</f>
         <v>-197.4890673090224</v>
       </c>
-      <c r="G26" s="71"/>
+      <c r="G26" s="86"/>
       <c r="H26" s="50">
         <f>C19*G71+C20*G72+G73</f>
         <v>-159.79193899782138</v>
@@ -2384,27 +2392,27 @@
       <c r="B28" s="10" t="s">
         <v>28</v>
       </c>
-      <c r="C28" s="61" t="str">
+      <c r="C28" s="97" t="str">
         <f>IF(AND(C19&gt;=L25,C19&lt;=L26,C20&gt;=L29,C20&lt;=L30),IF(AND(C21&lt;=N25,C21&gt;=N26),"APROVADO","REPROVADO"),"FORA DO DOMÍNIO ANALISADO")</f>
         <v>APROVADO</v>
       </c>
-      <c r="D28" s="61"/>
-      <c r="E28" s="62"/>
-      <c r="K28" s="69" t="s">
+      <c r="D28" s="97"/>
+      <c r="E28" s="98"/>
+      <c r="K28" s="105" t="s">
         <v>29</v>
       </c>
-      <c r="L28" s="69"/>
+      <c r="L28" s="105"/>
     </row>
     <row r="29" spans="2:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B29" s="9" t="s">
         <v>30</v>
       </c>
-      <c r="C29" s="66" t="str">
+      <c r="C29" s="102" t="str">
         <f>IF(C28="REPROVADO","Ruptura no Ponto de Quebra", "N/A")</f>
         <v>N/A</v>
       </c>
-      <c r="D29" s="61"/>
-      <c r="E29" s="62"/>
+      <c r="D29" s="97"/>
+      <c r="E29" s="98"/>
       <c r="K29" s="51" t="s">
         <v>31</v>
       </c>
@@ -2414,14 +2422,14 @@
       </c>
     </row>
     <row r="30" spans="2:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B30" s="67" t="s">
+      <c r="B30" s="103" t="s">
         <v>32</v>
       </c>
-      <c r="C30" s="68"/>
-      <c r="D30" s="66">
+      <c r="C30" s="104"/>
+      <c r="D30" s="102">
         <v>1.1000000000000001</v>
       </c>
-      <c r="E30" s="62"/>
+      <c r="E30" s="98"/>
       <c r="K30" s="51" t="s">
         <v>33</v>
       </c>
@@ -2438,20 +2446,20 @@
       <c r="K31" s="22"/>
     </row>
     <row r="32" spans="2:14" hidden="1" x14ac:dyDescent="0.25">
-      <c r="C32" s="72" t="s">
+      <c r="C32" s="83" t="s">
         <v>34</v>
       </c>
-      <c r="D32" s="72"/>
-      <c r="E32" s="72"/>
-      <c r="G32" s="72" t="s">
+      <c r="D32" s="83"/>
+      <c r="E32" s="83"/>
+      <c r="G32" s="83" t="s">
         <v>35</v>
       </c>
-      <c r="H32" s="72"/>
-      <c r="I32" s="72"/>
-      <c r="K32" s="60" t="s">
+      <c r="H32" s="83"/>
+      <c r="I32" s="83"/>
+      <c r="K32" s="56" t="s">
         <v>23</v>
       </c>
-      <c r="L32" s="60"/>
+      <c r="L32" s="56"/>
       <c r="M32" s="22"/>
     </row>
     <row r="33" spans="2:12" hidden="1" x14ac:dyDescent="0.25">
@@ -2554,10 +2562,10 @@
       <c r="I36">
         <v>-84</v>
       </c>
-      <c r="K36" s="60" t="s">
+      <c r="K36" s="56" t="s">
         <v>29</v>
       </c>
-      <c r="L36" s="60"/>
+      <c r="L36" s="56"/>
     </row>
     <row r="37" spans="2:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="K37" s="21" t="s">
@@ -2650,10 +2658,10 @@
         <f t="shared" si="3"/>
         <v>68</v>
       </c>
-      <c r="K40" s="60" t="s">
+      <c r="K40" s="56" t="s">
         <v>23</v>
       </c>
-      <c r="L40" s="60"/>
+      <c r="L40" s="56"/>
     </row>
     <row r="41" spans="2:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="K41" s="21" t="s">
@@ -2721,10 +2729,10 @@
       </c>
     </row>
     <row r="44" spans="2:12" hidden="1" x14ac:dyDescent="0.25">
-      <c r="K44" s="60" t="s">
+      <c r="K44" s="56" t="s">
         <v>29</v>
       </c>
-      <c r="L44" s="60"/>
+      <c r="L44" s="56"/>
     </row>
     <row r="45" spans="2:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="B45" t="s">
@@ -2833,20 +2841,20 @@
       </c>
     </row>
     <row r="53" spans="2:13" hidden="1" x14ac:dyDescent="0.25">
-      <c r="C53" s="72" t="s">
+      <c r="C53" s="83" t="s">
         <v>34</v>
       </c>
-      <c r="D53" s="72"/>
-      <c r="E53" s="72"/>
-      <c r="G53" s="72" t="s">
+      <c r="D53" s="83"/>
+      <c r="E53" s="83"/>
+      <c r="G53" s="83" t="s">
         <v>35</v>
       </c>
-      <c r="H53" s="72"/>
-      <c r="I53" s="72"/>
-      <c r="K53" s="60" t="s">
+      <c r="H53" s="83"/>
+      <c r="I53" s="83"/>
+      <c r="K53" s="56" t="s">
         <v>23</v>
       </c>
-      <c r="L53" s="60"/>
+      <c r="L53" s="56"/>
       <c r="M53" s="22"/>
     </row>
     <row r="54" spans="2:13" hidden="1" x14ac:dyDescent="0.25">
@@ -2949,10 +2957,10 @@
       <c r="I57">
         <v>-4</v>
       </c>
-      <c r="K57" s="60" t="s">
+      <c r="K57" s="56" t="s">
         <v>29</v>
       </c>
-      <c r="L57" s="60"/>
+      <c r="L57" s="56"/>
     </row>
     <row r="58" spans="2:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="K58" s="21" t="s">
@@ -3190,86 +3198,86 @@
       </c>
     </row>
     <row r="74" spans="2:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B74" s="92" t="s">
+      <c r="B74" s="72" t="s">
         <v>55</v>
       </c>
-      <c r="C74" s="93"/>
-      <c r="D74" s="93"/>
-      <c r="E74" s="93"/>
-      <c r="F74" s="93"/>
-      <c r="G74" s="93"/>
-      <c r="H74" s="93"/>
-      <c r="I74" s="94"/>
+      <c r="C74" s="73"/>
+      <c r="D74" s="73"/>
+      <c r="E74" s="73"/>
+      <c r="F74" s="73"/>
+      <c r="G74" s="73"/>
+      <c r="H74" s="73"/>
+      <c r="I74" s="74"/>
     </row>
     <row r="75" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B75" s="80"/>
-      <c r="C75" s="81"/>
-      <c r="D75" s="81"/>
-      <c r="E75" s="81"/>
-      <c r="F75" s="81"/>
-      <c r="G75" s="81"/>
-      <c r="H75" s="81"/>
-      <c r="I75" s="82"/>
+      <c r="B75" s="57"/>
+      <c r="C75" s="58"/>
+      <c r="D75" s="58"/>
+      <c r="E75" s="58"/>
+      <c r="F75" s="58"/>
+      <c r="G75" s="58"/>
+      <c r="H75" s="58"/>
+      <c r="I75" s="59"/>
     </row>
     <row r="76" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B76" s="83"/>
-      <c r="C76" s="84"/>
-      <c r="D76" s="84"/>
-      <c r="E76" s="84"/>
-      <c r="F76" s="84"/>
-      <c r="G76" s="84"/>
-      <c r="H76" s="84"/>
-      <c r="I76" s="85"/>
+      <c r="B76" s="60"/>
+      <c r="C76" s="61"/>
+      <c r="D76" s="61"/>
+      <c r="E76" s="61"/>
+      <c r="F76" s="61"/>
+      <c r="G76" s="61"/>
+      <c r="H76" s="61"/>
+      <c r="I76" s="62"/>
     </row>
     <row r="77" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B77" s="83"/>
-      <c r="C77" s="84"/>
-      <c r="D77" s="84"/>
-      <c r="E77" s="84"/>
-      <c r="F77" s="84"/>
-      <c r="G77" s="84"/>
-      <c r="H77" s="84"/>
-      <c r="I77" s="85"/>
+      <c r="B77" s="60"/>
+      <c r="C77" s="61"/>
+      <c r="D77" s="61"/>
+      <c r="E77" s="61"/>
+      <c r="F77" s="61"/>
+      <c r="G77" s="61"/>
+      <c r="H77" s="61"/>
+      <c r="I77" s="62"/>
     </row>
     <row r="78" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B78" s="83"/>
-      <c r="C78" s="84"/>
-      <c r="D78" s="84"/>
-      <c r="E78" s="84"/>
-      <c r="F78" s="84"/>
-      <c r="G78" s="84"/>
-      <c r="H78" s="84"/>
-      <c r="I78" s="85"/>
+      <c r="B78" s="60"/>
+      <c r="C78" s="61"/>
+      <c r="D78" s="61"/>
+      <c r="E78" s="61"/>
+      <c r="F78" s="61"/>
+      <c r="G78" s="61"/>
+      <c r="H78" s="61"/>
+      <c r="I78" s="62"/>
     </row>
     <row r="79" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B79" s="83"/>
-      <c r="C79" s="84"/>
-      <c r="D79" s="84"/>
-      <c r="E79" s="84"/>
-      <c r="F79" s="84"/>
-      <c r="G79" s="84"/>
-      <c r="H79" s="84"/>
-      <c r="I79" s="85"/>
+      <c r="B79" s="60"/>
+      <c r="C79" s="61"/>
+      <c r="D79" s="61"/>
+      <c r="E79" s="61"/>
+      <c r="F79" s="61"/>
+      <c r="G79" s="61"/>
+      <c r="H79" s="61"/>
+      <c r="I79" s="62"/>
     </row>
     <row r="80" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B80" s="83"/>
-      <c r="C80" s="84"/>
-      <c r="D80" s="84"/>
-      <c r="E80" s="84"/>
-      <c r="F80" s="84"/>
-      <c r="G80" s="84"/>
-      <c r="H80" s="84"/>
-      <c r="I80" s="85"/>
+      <c r="B80" s="60"/>
+      <c r="C80" s="61"/>
+      <c r="D80" s="61"/>
+      <c r="E80" s="61"/>
+      <c r="F80" s="61"/>
+      <c r="G80" s="61"/>
+      <c r="H80" s="61"/>
+      <c r="I80" s="62"/>
     </row>
     <row r="81" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B81" s="86"/>
-      <c r="C81" s="87"/>
-      <c r="D81" s="87"/>
-      <c r="E81" s="87"/>
-      <c r="F81" s="87"/>
-      <c r="G81" s="87"/>
-      <c r="H81" s="87"/>
-      <c r="I81" s="88"/>
+      <c r="B81" s="63"/>
+      <c r="C81" s="64"/>
+      <c r="D81" s="64"/>
+      <c r="E81" s="64"/>
+      <c r="F81" s="64"/>
+      <c r="G81" s="64"/>
+      <c r="H81" s="64"/>
+      <c r="I81" s="65"/>
     </row>
     <row r="82" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B82" s="30"/>
@@ -4186,6 +4194,28 @@
   </sheetData>
   <sheetProtection algorithmName="SHA-512" hashValue="1nlrxHZuBp2nmGTv8aburPZIfuwlqctgBUOPAK7vgeSOULS0jZ/gQ1xSasbdyVGPJvtgIX2dTbjtS1jZIATM3w==" saltValue="1/ztlGfKnhoaEVET9uHhDw==" spinCount="100000" sheet="1" formatCells="0" formatColumns="0" formatRows="0" insertColumns="0" insertRows="0" insertHyperlinks="0" deleteColumns="0" deleteRows="0" sort="0" autoFilter="0" pivotTables="0"/>
   <mergeCells count="38">
+    <mergeCell ref="E2:I2"/>
+    <mergeCell ref="E3:I3"/>
+    <mergeCell ref="E4:I4"/>
+    <mergeCell ref="K57:L57"/>
+    <mergeCell ref="C28:E28"/>
+    <mergeCell ref="E22:I22"/>
+    <mergeCell ref="C29:E29"/>
+    <mergeCell ref="B30:C30"/>
+    <mergeCell ref="D30:E30"/>
+    <mergeCell ref="K40:L40"/>
+    <mergeCell ref="K44:L44"/>
+    <mergeCell ref="K24:L24"/>
+    <mergeCell ref="K28:L28"/>
+    <mergeCell ref="K32:L32"/>
+    <mergeCell ref="K36:L36"/>
+    <mergeCell ref="F25:G25"/>
+    <mergeCell ref="F26:G26"/>
+    <mergeCell ref="G53:I53"/>
+    <mergeCell ref="B25:D25"/>
+    <mergeCell ref="B26:D26"/>
+    <mergeCell ref="F24:G24"/>
+    <mergeCell ref="C53:E53"/>
     <mergeCell ref="K53:L53"/>
     <mergeCell ref="B75:I81"/>
     <mergeCell ref="E5:I5"/>
@@ -4202,28 +4232,6 @@
     <mergeCell ref="C32:E32"/>
     <mergeCell ref="G32:I32"/>
     <mergeCell ref="B18:C18"/>
-    <mergeCell ref="F26:G26"/>
-    <mergeCell ref="G53:I53"/>
-    <mergeCell ref="B25:D25"/>
-    <mergeCell ref="B26:D26"/>
-    <mergeCell ref="F24:G24"/>
-    <mergeCell ref="C53:E53"/>
-    <mergeCell ref="E2:I2"/>
-    <mergeCell ref="E3:I3"/>
-    <mergeCell ref="E4:I4"/>
-    <mergeCell ref="K57:L57"/>
-    <mergeCell ref="C28:E28"/>
-    <mergeCell ref="E22:I22"/>
-    <mergeCell ref="C29:E29"/>
-    <mergeCell ref="B30:C30"/>
-    <mergeCell ref="D30:E30"/>
-    <mergeCell ref="K40:L40"/>
-    <mergeCell ref="K44:L44"/>
-    <mergeCell ref="K24:L24"/>
-    <mergeCell ref="K28:L28"/>
-    <mergeCell ref="K32:L32"/>
-    <mergeCell ref="K36:L36"/>
-    <mergeCell ref="F25:G25"/>
   </mergeCells>
   <conditionalFormatting sqref="C28">
     <cfRule type="cellIs" dxfId="2" priority="2" operator="equal">
@@ -4261,7 +4269,7 @@
   <dimension ref="A1:K77"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M16" sqref="M16"/>
+      <selection activeCell="O22" sqref="O22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4280,76 +4288,76 @@
       <c r="B2" s="33" t="s">
         <v>63</v>
       </c>
-      <c r="C2" s="108" t="s">
+      <c r="C2" s="127" t="s">
         <v>118</v>
       </c>
-      <c r="D2" s="109"/>
+      <c r="D2" s="128"/>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" s="34"/>
       <c r="B3" s="35" t="s">
         <v>64</v>
       </c>
-      <c r="C3" s="110" t="s">
+      <c r="C3" s="129" t="s">
         <v>119</v>
       </c>
-      <c r="D3" s="111"/>
+      <c r="D3" s="130"/>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" s="34"/>
       <c r="B4" s="35" t="s">
         <v>65</v>
       </c>
-      <c r="C4" s="110" t="s">
+      <c r="C4" s="129" t="s">
         <v>120</v>
       </c>
-      <c r="D4" s="111"/>
+      <c r="D4" s="130"/>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A5" s="118" t="s">
+      <c r="A5" s="137" t="s">
         <v>13</v>
       </c>
-      <c r="B5" s="119"/>
-      <c r="C5" s="112">
+      <c r="B5" s="138"/>
+      <c r="C5" s="131">
         <v>45313</v>
       </c>
-      <c r="D5" s="113"/>
+      <c r="D5" s="132"/>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A6" s="118" t="s">
+      <c r="A6" s="137" t="s">
         <v>66</v>
       </c>
-      <c r="B6" s="119"/>
-      <c r="C6" s="114"/>
-      <c r="D6" s="115"/>
+      <c r="B6" s="138"/>
+      <c r="C6" s="133"/>
+      <c r="D6" s="134"/>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A7" s="118" t="s">
+      <c r="A7" s="137" t="s">
         <v>8</v>
       </c>
-      <c r="B7" s="119"/>
-      <c r="C7" s="110" t="s">
+      <c r="B7" s="138"/>
+      <c r="C7" s="129" t="s">
         <v>121</v>
       </c>
-      <c r="D7" s="111"/>
+      <c r="D7" s="130"/>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A8" s="118" t="s">
+      <c r="A8" s="137" t="s">
         <v>10</v>
       </c>
-      <c r="B8" s="119"/>
-      <c r="C8" s="110" t="s">
+      <c r="B8" s="138"/>
+      <c r="C8" s="129" t="s">
         <v>122</v>
       </c>
-      <c r="D8" s="111"/>
+      <c r="D8" s="130"/>
     </row>
     <row r="9" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="120" t="s">
+      <c r="A9" s="139" t="s">
         <v>12</v>
       </c>
-      <c r="B9" s="121"/>
-      <c r="C9" s="116"/>
-      <c r="D9" s="117"/>
+      <c r="B9" s="140"/>
+      <c r="C9" s="135"/>
+      <c r="D9" s="136"/>
     </row>
     <row r="10" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="11" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -4384,59 +4392,59 @@
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A13" s="105" t="s">
+      <c r="A13" s="126" t="s">
         <v>73</v>
       </c>
       <c r="B13" s="28" t="s">
         <v>74</v>
       </c>
       <c r="C13" s="40">
-        <v>1.74</v>
-      </c>
-      <c r="D13" s="125" t="str">
+        <v>2.665</v>
+      </c>
+      <c r="D13" s="110" t="str">
         <f>IF(AND(C13&gt;=G72,C13&lt;=G73,C14&gt;=G76,C14&lt;=G77),IF(AND(C15&lt;=F15,C15&gt;=G15),"APROVADO","REPROVADO"),"FORA DO DOMÍNIO ANALISADO")</f>
         <v>APROVADO</v>
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A14" s="106"/>
+      <c r="A14" s="124"/>
       <c r="B14" s="24" t="s">
         <v>75</v>
       </c>
       <c r="C14" s="41">
-        <v>0.24</v>
-      </c>
-      <c r="D14" s="126"/>
-    </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A15" s="106"/>
+        <v>3.39</v>
+      </c>
+      <c r="D14" s="111"/>
+    </row>
+    <row r="15" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A15" s="124"/>
       <c r="B15" s="24" t="s">
         <v>76</v>
       </c>
       <c r="C15" s="41">
-        <v>20.99</v>
-      </c>
-      <c r="D15" s="127"/>
+        <v>23.06</v>
+      </c>
+      <c r="D15" s="112"/>
       <c r="F15" s="1">
         <f>C13*G58+C14*G59+G60</f>
-        <v>192.35581275720162</v>
+        <v>187.64591784244561</v>
       </c>
       <c r="G15" s="1">
         <f>C13*K58+C14*K59+K60</f>
-        <v>-190.3502829218107</v>
+        <v>-194.89519216637274</v>
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A16" s="106" t="s">
+      <c r="A16" s="124" t="s">
         <v>77</v>
       </c>
       <c r="B16" s="24" t="s">
         <v>74</v>
       </c>
-      <c r="C16" s="41">
-        <v>-2.41</v>
-      </c>
-      <c r="D16" s="130" t="str">
+      <c r="C16" s="54">
+        <v>2.665</v>
+      </c>
+      <c r="D16" s="122" t="str">
         <f>IF(AND(C16&gt;=G72,C16&lt;=G73,C17&gt;=G76,C17&lt;=G77),IF(AND(C18&lt;=F18,C18&gt;=G18),"APROVADO","REPROVADO"),"FORA DO DOMÍNIO ANALISADO")</f>
         <v>APROVADO</v>
       </c>
@@ -4444,85 +4452,87 @@
       <c r="G16" s="1"/>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A17" s="106"/>
+      <c r="A17" s="124"/>
       <c r="B17" s="24" t="s">
         <v>75</v>
       </c>
-      <c r="C17" s="41">
-        <v>-4.8099999999999996</v>
-      </c>
-      <c r="D17" s="126"/>
+      <c r="C17" s="55">
+        <v>3.39</v>
+      </c>
+      <c r="D17" s="111"/>
     </row>
     <row r="18" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="107"/>
+      <c r="A18" s="125"/>
       <c r="B18" s="29" t="s">
         <v>76</v>
       </c>
-      <c r="C18" s="42">
-        <v>7.81</v>
-      </c>
-      <c r="D18" s="131"/>
+      <c r="C18" s="55">
+        <v>23.06</v>
+      </c>
+      <c r="D18" s="123"/>
       <c r="F18" s="1">
         <f>C16*G58+C17*G59+G60</f>
-        <v>196.45713183421515</v>
+        <v>187.64591784244561</v>
       </c>
       <c r="G18" s="1">
         <f>C16*K58+C17*K59+K60</f>
-        <v>-186.0430831128748</v>
+        <v>-194.89519216637274</v>
       </c>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A19" s="105" t="s">
+      <c r="A19" s="126" t="s">
         <v>78</v>
       </c>
       <c r="B19" s="28" t="s">
         <v>74</v>
       </c>
-      <c r="C19" s="40">
-        <v>0.95</v>
-      </c>
-      <c r="D19" s="125" t="str">
+      <c r="C19" s="54">
+        <v>2.665</v>
+      </c>
+      <c r="D19" s="110" t="str">
         <f>IF(AND(C19&gt;=G72,C19&lt;=G73,C20&gt;=G76,C20&lt;=G77),IF(AND(C21&lt;=F21,C21&gt;=G21),"APROVADO","REPROVADO"),"FORA DO DOMÍNIO ANALISADO")</f>
         <v>APROVADO</v>
       </c>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A20" s="106"/>
+      <c r="A20" s="124"/>
       <c r="B20" s="24" t="s">
         <v>75</v>
       </c>
-      <c r="C20" s="41">
-        <v>-1.56</v>
-      </c>
-      <c r="D20" s="126"/>
-    </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A21" s="106"/>
+      <c r="C20" s="55">
+        <v>3.39</v>
+      </c>
+      <c r="D20" s="111"/>
+    </row>
+    <row r="21" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A21" s="124"/>
       <c r="B21" s="24" t="s">
         <v>76</v>
       </c>
-      <c r="C21" s="41">
-        <v>15.53</v>
-      </c>
-      <c r="D21" s="127"/>
+      <c r="C21" s="55">
+        <v>23.06</v>
+      </c>
+      <c r="D21" s="112"/>
       <c r="F21" s="1">
         <f>C19*G58+C20*G59+G60</f>
-        <v>194.70906084656082</v>
+        <v>187.64591784244561</v>
       </c>
       <c r="G21" s="1">
         <f>C19*K58+C20*K59+K60</f>
-        <v>-188.04520502645502</v>
+        <v>-194.89519216637274</v>
       </c>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A22" s="106" t="s">
+      <c r="A22" s="124" t="s">
         <v>79</v>
       </c>
       <c r="B22" s="24" t="s">
         <v>74</v>
       </c>
-      <c r="C22" s="41"/>
-      <c r="D22" s="130" t="str">
+      <c r="C22" s="54">
+        <v>2.665</v>
+      </c>
+      <c r="D22" s="122" t="str">
         <f>IF(AND(C22&gt;=G72,C22&lt;=G73,C23&gt;=G76,C23&lt;=G77),IF(AND(C24&lt;=F24,C24&gt;=G24),"APROVADO","REPROVADO"),"FORA DO DOMÍNIO ANALISADO")</f>
         <v>APROVADO</v>
       </c>
@@ -4530,40 +4540,44 @@
       <c r="G22" s="1"/>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A23" s="106"/>
+      <c r="A23" s="124"/>
       <c r="B23" s="24" t="s">
         <v>75</v>
       </c>
-      <c r="C23" s="41"/>
-      <c r="D23" s="126"/>
+      <c r="C23" s="55">
+        <v>3.39</v>
+      </c>
+      <c r="D23" s="111"/>
       <c r="F23" s="1"/>
       <c r="G23" s="1"/>
     </row>
     <row r="24" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="107"/>
+      <c r="A24" s="125"/>
       <c r="B24" s="29" t="s">
         <v>76</v>
       </c>
-      <c r="C24" s="42"/>
-      <c r="D24" s="131"/>
+      <c r="C24" s="55">
+        <v>23.06</v>
+      </c>
+      <c r="D24" s="123"/>
       <c r="F24" s="1">
         <f>C22*G58+C23*G59+G60</f>
-        <v>190.55537184009404</v>
+        <v>187.64591784244561</v>
       </c>
       <c r="G24" s="1">
         <f>C22*K58+C23*K59+K60</f>
-        <v>-191.86884553203998</v>
+        <v>-194.89519216637274</v>
       </c>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A25" s="105" t="s">
+      <c r="A25" s="126" t="s">
         <v>80</v>
       </c>
       <c r="B25" s="28" t="s">
         <v>74</v>
       </c>
       <c r="C25" s="40"/>
-      <c r="D25" s="125" t="str">
+      <c r="D25" s="110" t="str">
         <f>IF(AND(C25&gt;=G72,C25&lt;=G73,C26&gt;=G76,C26&lt;=G77),IF(AND(C27&lt;=F24,C27&gt;=G24),"APROVADO","REPROVADO"),"FORA DO DOMÍNIO ANALISADO")</f>
         <v>APROVADO</v>
       </c>
@@ -4571,22 +4585,22 @@
       <c r="G25" s="1"/>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A26" s="106"/>
+      <c r="A26" s="124"/>
       <c r="B26" s="24" t="s">
         <v>75</v>
       </c>
       <c r="C26" s="41"/>
-      <c r="D26" s="126"/>
+      <c r="D26" s="111"/>
       <c r="F26" s="1"/>
       <c r="G26" s="1"/>
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A27" s="106"/>
+      <c r="A27" s="124"/>
       <c r="B27" s="24" t="s">
         <v>76</v>
       </c>
       <c r="C27" s="41"/>
-      <c r="D27" s="127"/>
+      <c r="D27" s="112"/>
       <c r="F27" s="1">
         <f>C25*G58+C26*G59+G60</f>
         <v>190.55537184009404</v>
@@ -4597,14 +4611,14 @@
       </c>
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A28" s="106" t="s">
+      <c r="A28" s="124" t="s">
         <v>81</v>
       </c>
       <c r="B28" s="24" t="s">
         <v>74</v>
       </c>
       <c r="C28" s="41"/>
-      <c r="D28" s="130" t="str">
+      <c r="D28" s="122" t="str">
         <f>IF(AND(C28&gt;=G72,C28&lt;=G73,C29&gt;=G76,C29&lt;=G77),IF(AND(C30&lt;=F30,C30&gt;=G30),"APROVADO","REPROVADO"),"FORA DO DOMÍNIO ANALISADO")</f>
         <v>APROVADO</v>
       </c>
@@ -4612,22 +4626,22 @@
       <c r="G28" s="1"/>
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A29" s="106"/>
+      <c r="A29" s="124"/>
       <c r="B29" s="24" t="s">
         <v>75</v>
       </c>
       <c r="C29" s="41"/>
-      <c r="D29" s="126"/>
+      <c r="D29" s="111"/>
       <c r="F29" s="1"/>
       <c r="G29" s="1"/>
     </row>
     <row r="30" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A30" s="107"/>
+      <c r="A30" s="125"/>
       <c r="B30" s="29" t="s">
         <v>76</v>
       </c>
       <c r="C30" s="42"/>
-      <c r="D30" s="131"/>
+      <c r="D30" s="123"/>
       <c r="F30" s="1">
         <f>C28*G58+C29*G59+G60</f>
         <v>190.55537184009404</v>
@@ -4638,14 +4652,14 @@
       </c>
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A31" s="105" t="s">
+      <c r="A31" s="126" t="s">
         <v>82</v>
       </c>
       <c r="B31" s="28" t="s">
         <v>74</v>
       </c>
       <c r="C31" s="40"/>
-      <c r="D31" s="125" t="str">
+      <c r="D31" s="110" t="str">
         <f>IF(AND(C31&gt;=J72,C31&lt;=J73,C32&gt;=J76,C32&lt;=J77),IF(AND(C33&lt;=F33,C33&gt;=G33),"APROVADO","REPROVADO"),"FORA DO DOMÍNIO ANALISADO")</f>
         <v>APROVADO</v>
       </c>
@@ -4653,22 +4667,22 @@
       <c r="G31" s="1"/>
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A32" s="106"/>
+      <c r="A32" s="124"/>
       <c r="B32" s="24" t="s">
         <v>75</v>
       </c>
       <c r="C32" s="41"/>
-      <c r="D32" s="126"/>
+      <c r="D32" s="111"/>
       <c r="F32" s="1"/>
       <c r="G32" s="1"/>
     </row>
     <row r="33" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A33" s="106"/>
+      <c r="A33" s="124"/>
       <c r="B33" s="24" t="s">
         <v>76</v>
       </c>
       <c r="C33" s="41"/>
-      <c r="D33" s="127"/>
+      <c r="D33" s="112"/>
       <c r="F33" s="1">
         <f>C31*G66+C32*G67+G68</f>
         <v>119.95206971677561</v>
@@ -4679,14 +4693,14 @@
       </c>
     </row>
     <row r="34" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A34" s="106" t="s">
+      <c r="A34" s="124" t="s">
         <v>83</v>
       </c>
       <c r="B34" s="24" t="s">
         <v>74</v>
       </c>
       <c r="C34" s="41"/>
-      <c r="D34" s="130" t="str">
+      <c r="D34" s="122" t="str">
         <f>IF(AND(C34&gt;=J72,C34&lt;=J73,C35&gt;=J76,C35&lt;=J77),IF(AND(C36&lt;=F36,C36&gt;=G36),"APROVADO","REPROVADO"),"FORA DO DOMÍNIO ANALISADO")</f>
         <v>APROVADO</v>
       </c>
@@ -4694,22 +4708,22 @@
       <c r="G34" s="1"/>
     </row>
     <row r="35" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A35" s="106"/>
+      <c r="A35" s="124"/>
       <c r="B35" s="24" t="s">
         <v>75</v>
       </c>
       <c r="C35" s="41"/>
-      <c r="D35" s="126"/>
+      <c r="D35" s="111"/>
       <c r="F35" s="1"/>
       <c r="G35" s="1"/>
     </row>
     <row r="36" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A36" s="107"/>
+      <c r="A36" s="125"/>
       <c r="B36" s="29" t="s">
         <v>76</v>
       </c>
       <c r="C36" s="42"/>
-      <c r="D36" s="131"/>
+      <c r="D36" s="123"/>
       <c r="F36" s="1">
         <f>C34*G66+C35*G67+G68</f>
         <v>119.95206971677561</v>
@@ -4720,14 +4734,14 @@
       </c>
     </row>
     <row r="37" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A37" s="105" t="s">
+      <c r="A37" s="126" t="s">
         <v>84</v>
       </c>
       <c r="B37" s="28" t="s">
         <v>74</v>
       </c>
       <c r="C37" s="40"/>
-      <c r="D37" s="125" t="str">
+      <c r="D37" s="110" t="str">
         <f>IF(AND(C37&gt;=J72,C37&lt;=J73,C38&gt;=J76,C38&lt;=J77),IF(AND(C39&lt;=F39,C39&gt;=G39),"APROVADO","REPROVADO"),"FORA DO DOMÍNIO ANALISADO")</f>
         <v>APROVADO</v>
       </c>
@@ -4735,22 +4749,22 @@
       <c r="G37" s="1"/>
     </row>
     <row r="38" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A38" s="106"/>
+      <c r="A38" s="124"/>
       <c r="B38" s="24" t="s">
         <v>75</v>
       </c>
       <c r="C38" s="41"/>
-      <c r="D38" s="126"/>
+      <c r="D38" s="111"/>
       <c r="F38" s="1"/>
       <c r="G38" s="1"/>
     </row>
     <row r="39" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A39" s="106"/>
+      <c r="A39" s="124"/>
       <c r="B39" s="24" t="s">
         <v>76</v>
       </c>
       <c r="C39" s="41"/>
-      <c r="D39" s="127"/>
+      <c r="D39" s="112"/>
       <c r="F39" s="53">
         <f>C37*G$66+C38*G$67+G$68</f>
         <v>119.95206971677561</v>
@@ -4761,14 +4775,14 @@
       </c>
     </row>
     <row r="40" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A40" s="106" t="s">
+      <c r="A40" s="124" t="s">
         <v>85</v>
       </c>
       <c r="B40" s="24" t="s">
         <v>74</v>
       </c>
       <c r="C40" s="41"/>
-      <c r="D40" s="130" t="str">
+      <c r="D40" s="122" t="str">
         <f>IF(AND(C40&gt;=$J$72,C40&lt;=$J$73,C41&gt;=$J$76,C41&lt;=$J$77),IF(AND(C42&lt;=F42,C42&gt;=G42),"APROVADO","REPROVADO"),"FORA DO DOMÍNIO ANALISADO")</f>
         <v>APROVADO</v>
       </c>
@@ -4776,22 +4790,22 @@
       <c r="G40" s="1"/>
     </row>
     <row r="41" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A41" s="106"/>
+      <c r="A41" s="124"/>
       <c r="B41" s="24" t="s">
         <v>75</v>
       </c>
       <c r="C41" s="41"/>
-      <c r="D41" s="126"/>
+      <c r="D41" s="111"/>
       <c r="F41" s="1"/>
       <c r="G41" s="1"/>
     </row>
     <row r="42" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A42" s="107"/>
+      <c r="A42" s="125"/>
       <c r="B42" s="29" t="s">
         <v>76</v>
       </c>
       <c r="C42" s="42"/>
-      <c r="D42" s="131"/>
+      <c r="D42" s="123"/>
       <c r="F42" s="53">
         <f>C40*G$66+C41*G$67+G$68</f>
         <v>119.95206971677561</v>
@@ -4802,14 +4816,14 @@
       </c>
     </row>
     <row r="43" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A43" s="122" t="s">
+      <c r="A43" s="107" t="s">
         <v>86</v>
       </c>
       <c r="B43" s="28" t="s">
         <v>72</v>
       </c>
       <c r="C43" s="40"/>
-      <c r="D43" s="125" t="str">
+      <c r="D43" s="110" t="str">
         <f>IF(AND(C43&gt;=$J$72,C43&lt;=$J$73,C44&gt;=$J$76,C44&lt;=$J$77),IF(AND(C45&lt;=F45,C45&gt;=G45),"APROVADO","REPROVADO"),"FORA DO DOMÍNIO ANALISADO")</f>
         <v>APROVADO</v>
       </c>
@@ -4817,22 +4831,22 @@
       <c r="G43" s="1"/>
     </row>
     <row r="44" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A44" s="123"/>
+      <c r="A44" s="108"/>
       <c r="B44" s="24" t="s">
         <v>87</v>
       </c>
       <c r="C44" s="41"/>
-      <c r="D44" s="126"/>
+      <c r="D44" s="111"/>
       <c r="F44" s="1"/>
       <c r="G44" s="1"/>
     </row>
     <row r="45" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A45" s="124"/>
+      <c r="A45" s="109"/>
       <c r="B45" s="24" t="s">
         <v>88</v>
       </c>
       <c r="C45" s="41"/>
-      <c r="D45" s="127"/>
+      <c r="D45" s="112"/>
       <c r="F45" s="1">
         <f>IF('Gooseneck MCV Global 10k MUX'!C22="11ksi",C43*$G$66+C44*$G$67+$G$68,C43*$G$62+C44*$G$63+$G$64)</f>
         <v>155.25372077843483</v>
@@ -4843,14 +4857,14 @@
       </c>
     </row>
     <row r="46" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A46" s="128" t="s">
+      <c r="A46" s="120" t="s">
         <v>89</v>
       </c>
       <c r="B46" s="24" t="s">
         <v>72</v>
       </c>
       <c r="C46" s="41"/>
-      <c r="D46" s="130" t="str">
+      <c r="D46" s="122" t="str">
         <f>IF(AND(C46&gt;=$J$72,C46&lt;=$J$73,C47&gt;=$J$76,C47&lt;=$J$77),IF(AND(C48&lt;=F48,C48&gt;=G48),"APROVADO","REPROVADO"),"FORA DO DOMÍNIO ANALISADO")</f>
         <v>APROVADO</v>
       </c>
@@ -4858,22 +4872,22 @@
       <c r="G46" s="1"/>
     </row>
     <row r="47" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A47" s="123"/>
+      <c r="A47" s="108"/>
       <c r="B47" s="24" t="s">
         <v>87</v>
       </c>
       <c r="C47" s="41"/>
-      <c r="D47" s="126"/>
+      <c r="D47" s="111"/>
       <c r="F47" s="1"/>
       <c r="G47" s="1"/>
     </row>
     <row r="48" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A48" s="129"/>
+      <c r="A48" s="121"/>
       <c r="B48" s="29" t="s">
         <v>88</v>
       </c>
       <c r="C48" s="42"/>
-      <c r="D48" s="131"/>
+      <c r="D48" s="123"/>
       <c r="F48" s="1">
         <f>IF('Gooseneck MCV Global 10k MUX'!C22="11ksi",C46*$G$66+C47*$G$67+$G$68,C46*$G$62+C47*$G$63+$G$64)</f>
         <v>155.25372077843483</v>
@@ -4884,14 +4898,14 @@
       </c>
     </row>
     <row r="49" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A49" s="122" t="s">
+      <c r="A49" s="107" t="s">
         <v>90</v>
       </c>
       <c r="B49" s="28" t="s">
         <v>72</v>
       </c>
       <c r="C49" s="40"/>
-      <c r="D49" s="125" t="str">
+      <c r="D49" s="110" t="str">
         <f>IF(AND(C49&gt;=$J$72,C49&lt;=$J$73,C50&gt;=$J$76,C50&lt;=$J$77),IF(AND(C51&lt;=F51,C51&gt;=G51),"APROVADO","REPROVADO"),"FORA DO DOMÍNIO ANALISADO")</f>
         <v>APROVADO</v>
       </c>
@@ -4899,22 +4913,22 @@
       <c r="G49" s="1"/>
     </row>
     <row r="50" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A50" s="123"/>
+      <c r="A50" s="108"/>
       <c r="B50" s="24" t="s">
         <v>87</v>
       </c>
       <c r="C50" s="41"/>
-      <c r="D50" s="126"/>
+      <c r="D50" s="111"/>
       <c r="F50" s="1"/>
       <c r="G50" s="1"/>
     </row>
     <row r="51" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A51" s="124"/>
+      <c r="A51" s="109"/>
       <c r="B51" s="24" t="s">
         <v>88</v>
       </c>
       <c r="C51" s="41"/>
-      <c r="D51" s="127"/>
+      <c r="D51" s="112"/>
       <c r="F51" s="53">
         <f>IF('Gooseneck MCV Global 10k MUX'!C22="11ksi",C49*$G$66+C50*$G$67+$G$68,C49*$G$62+C50*$G$63+$G$64)</f>
         <v>155.25372077843483</v>
@@ -4925,14 +4939,14 @@
       </c>
     </row>
     <row r="52" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A52" s="128" t="s">
+      <c r="A52" s="120" t="s">
         <v>91</v>
       </c>
       <c r="B52" s="24" t="s">
         <v>72</v>
       </c>
       <c r="C52" s="41"/>
-      <c r="D52" s="130" t="str">
+      <c r="D52" s="122" t="str">
         <f>IF(AND(C52&gt;=$J$72,C52&lt;=$J$73,C53&gt;=$J$76,C53&lt;=$J$77),IF(AND(C54&lt;=F54,C54&gt;=G54),"APROVADO","REPROVADO"),"FORA DO DOMÍNIO ANALISADO")</f>
         <v>APROVADO</v>
       </c>
@@ -4940,22 +4954,22 @@
       <c r="G52" s="1"/>
     </row>
     <row r="53" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A53" s="123"/>
+      <c r="A53" s="108"/>
       <c r="B53" s="24" t="s">
         <v>87</v>
       </c>
       <c r="C53" s="41"/>
-      <c r="D53" s="126"/>
+      <c r="D53" s="111"/>
       <c r="F53" s="1"/>
       <c r="G53" s="1"/>
     </row>
     <row r="54" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A54" s="129"/>
+      <c r="A54" s="121"/>
       <c r="B54" s="29" t="s">
         <v>88</v>
       </c>
       <c r="C54" s="42"/>
-      <c r="D54" s="131"/>
+      <c r="D54" s="123"/>
       <c r="F54" s="1">
         <f>IF('Gooseneck MCV Global 10k MUX'!C22="11ksi",C52*$G$66+C53*$G$67+$G$68,C52*$G$62+C53*$G$63+$G$64)</f>
         <v>155.25372077843483</v>
@@ -4967,26 +4981,26 @@
     </row>
     <row r="55" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="56" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A56" s="133" t="s">
+      <c r="A56" s="114" t="s">
         <v>92</v>
       </c>
-      <c r="B56" s="134"/>
-      <c r="C56" s="134"/>
-      <c r="D56" s="135"/>
+      <c r="B56" s="115"/>
+      <c r="C56" s="115"/>
+      <c r="D56" s="116"/>
     </row>
     <row r="57" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A57" s="136"/>
-      <c r="B57" s="137"/>
-      <c r="C57" s="137"/>
-      <c r="D57" s="138"/>
-      <c r="F57" s="132" t="s">
+      <c r="A57" s="117"/>
+      <c r="B57" s="118"/>
+      <c r="C57" s="118"/>
+      <c r="D57" s="119"/>
+      <c r="F57" s="113" t="s">
         <v>93</v>
       </c>
-      <c r="G57" s="132"/>
-      <c r="H57" s="132"/>
-      <c r="I57" s="132"/>
-      <c r="J57" s="132"/>
-      <c r="K57" s="132"/>
+      <c r="G57" s="113"/>
+      <c r="H57" s="113"/>
+      <c r="I57" s="113"/>
+      <c r="J57" s="113"/>
+      <c r="K57" s="113"/>
     </row>
     <row r="58" spans="1:11" x14ac:dyDescent="0.25">
       <c r="F58" t="s">
@@ -5022,14 +5036,14 @@
       </c>
     </row>
     <row r="61" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="F61" s="132" t="s">
+      <c r="F61" s="113" t="s">
         <v>94</v>
       </c>
-      <c r="G61" s="132"/>
-      <c r="H61" s="132"/>
-      <c r="I61" s="132"/>
-      <c r="J61" s="132"/>
-      <c r="K61" s="132"/>
+      <c r="G61" s="113"/>
+      <c r="H61" s="113"/>
+      <c r="I61" s="113"/>
+      <c r="J61" s="113"/>
+      <c r="K61" s="113"/>
     </row>
     <row r="62" spans="1:11" x14ac:dyDescent="0.25">
       <c r="F62" t="s">
@@ -5071,14 +5085,14 @@
       </c>
     </row>
     <row r="65" spans="6:11" x14ac:dyDescent="0.25">
-      <c r="F65" s="132" t="s">
+      <c r="F65" s="113" t="s">
         <v>95</v>
       </c>
-      <c r="G65" s="132"/>
-      <c r="H65" s="132"/>
-      <c r="I65" s="132"/>
-      <c r="J65" s="132"/>
-      <c r="K65" s="132"/>
+      <c r="G65" s="113"/>
+      <c r="H65" s="113"/>
+      <c r="I65" s="113"/>
+      <c r="J65" s="113"/>
+      <c r="K65" s="113"/>
     </row>
     <row r="66" spans="6:11" x14ac:dyDescent="0.25">
       <c r="F66" t="s">
@@ -5114,14 +5128,14 @@
       </c>
     </row>
     <row r="70" spans="6:11" x14ac:dyDescent="0.25">
-      <c r="F70" s="132" t="s">
+      <c r="F70" s="113" t="s">
         <v>93</v>
       </c>
-      <c r="G70" s="132"/>
-      <c r="I70" s="132" t="s">
+      <c r="G70" s="113"/>
+      <c r="I70" s="113" t="s">
         <v>95</v>
       </c>
-      <c r="J70" s="132"/>
+      <c r="J70" s="113"/>
     </row>
     <row r="71" spans="6:11" x14ac:dyDescent="0.25">
       <c r="F71" t="s">
@@ -5198,21 +5212,22 @@
   </sheetData>
   <sheetProtection algorithmName="SHA-512" hashValue="6CIids3gQlEq52cHD/GoSlet/gCUrOkwRKPJscEALX0ZWVeJe3tb9h9tAiL61vPIVczA+FdVgkkAm2+H8eGAmQ==" saltValue="C1V4bw5UjT2FPZryQlcUlw==" spinCount="100000" sheet="1" objects="1" scenarios="1" formatCells="0" formatColumns="0" formatRows="0" insertColumns="0" insertRows="0" insertHyperlinks="0" deleteColumns="0" deleteRows="0" sort="0" autoFilter="0" pivotTables="0"/>
   <mergeCells count="47">
-    <mergeCell ref="A49:A51"/>
-    <mergeCell ref="D49:D51"/>
-    <mergeCell ref="F57:K57"/>
-    <mergeCell ref="F65:K65"/>
-    <mergeCell ref="F70:G70"/>
-    <mergeCell ref="I70:J70"/>
-    <mergeCell ref="A56:D57"/>
-    <mergeCell ref="A52:A54"/>
-    <mergeCell ref="D52:D54"/>
-    <mergeCell ref="F61:K61"/>
-    <mergeCell ref="D28:D30"/>
-    <mergeCell ref="D31:D33"/>
-    <mergeCell ref="D34:D36"/>
-    <mergeCell ref="D37:D39"/>
-    <mergeCell ref="D40:D42"/>
+    <mergeCell ref="A19:A21"/>
+    <mergeCell ref="A22:A24"/>
+    <mergeCell ref="A25:A27"/>
+    <mergeCell ref="C2:D2"/>
+    <mergeCell ref="C3:D3"/>
+    <mergeCell ref="C4:D4"/>
+    <mergeCell ref="C5:D5"/>
+    <mergeCell ref="C6:D6"/>
+    <mergeCell ref="C9:D9"/>
+    <mergeCell ref="A5:B5"/>
+    <mergeCell ref="A6:B6"/>
+    <mergeCell ref="A7:B7"/>
+    <mergeCell ref="A8:B8"/>
+    <mergeCell ref="A9:B9"/>
+    <mergeCell ref="C7:D7"/>
+    <mergeCell ref="C8:D8"/>
     <mergeCell ref="A43:A45"/>
     <mergeCell ref="D43:D45"/>
     <mergeCell ref="A46:A48"/>
@@ -5229,22 +5244,21 @@
     <mergeCell ref="A40:A42"/>
     <mergeCell ref="A13:A15"/>
     <mergeCell ref="A16:A18"/>
-    <mergeCell ref="A19:A21"/>
-    <mergeCell ref="A22:A24"/>
-    <mergeCell ref="A25:A27"/>
-    <mergeCell ref="C2:D2"/>
-    <mergeCell ref="C3:D3"/>
-    <mergeCell ref="C4:D4"/>
-    <mergeCell ref="C5:D5"/>
-    <mergeCell ref="C6:D6"/>
-    <mergeCell ref="C9:D9"/>
-    <mergeCell ref="A5:B5"/>
-    <mergeCell ref="A6:B6"/>
-    <mergeCell ref="A7:B7"/>
-    <mergeCell ref="A8:B8"/>
-    <mergeCell ref="A9:B9"/>
-    <mergeCell ref="C7:D7"/>
-    <mergeCell ref="C8:D8"/>
+    <mergeCell ref="D28:D30"/>
+    <mergeCell ref="D31:D33"/>
+    <mergeCell ref="D34:D36"/>
+    <mergeCell ref="D37:D39"/>
+    <mergeCell ref="D40:D42"/>
+    <mergeCell ref="A49:A51"/>
+    <mergeCell ref="D49:D51"/>
+    <mergeCell ref="F57:K57"/>
+    <mergeCell ref="F65:K65"/>
+    <mergeCell ref="F70:G70"/>
+    <mergeCell ref="I70:J70"/>
+    <mergeCell ref="A56:D57"/>
+    <mergeCell ref="A52:A54"/>
+    <mergeCell ref="D52:D54"/>
+    <mergeCell ref="F61:K61"/>
   </mergeCells>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -5644,15 +5658,6 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement>
     <lcf76f155ced4ddcb4097134ff3c332f xmlns="461c5b05-e7ae-45a9-96d4-4a689e060405">
@@ -5663,25 +5668,52 @@
 </p:properties>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{C16339D3-36BA-4E49-9C87-1FA1F250E7A6}"/>
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E67576F3-9083-46A8-A04E-4A215CD8F46A}">
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{C16339D3-36BA-4E49-9C87-1FA1F250E7A6}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="509bbd28-9a6d-445a-83dd-f5d328eece76"/>
+    <ds:schemaRef ds:uri="903036b2-f8dc-4ca8-82df-457cf2fff651"/>
+    <ds:schemaRef ds:uri="461c5b05-e7ae-45a9-96d4-4a689e060405"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A8CF2275-3336-4274-B6DB-44DC4CEC775F}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
     <ds:schemaRef ds:uri="e22693a2-11d8-4e06-9932-42f8499655b9"/>
     <ds:schemaRef ds:uri="7240fca1-d5d8-4b7d-af8f-d58b11c87bd0"/>
+    <ds:schemaRef ds:uri="461c5b05-e7ae-45a9-96d4-4a689e060405"/>
+    <ds:schemaRef ds:uri="903036b2-f8dc-4ca8-82df-457cf2fff651"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E67576F3-9083-46A8-A04E-4A215CD8F46A}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>